--- a/biology/Histoire de la zoologie et de la botanique/William_Spotswood_Green/William_Spotswood_Green.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Spotswood_Green/William_Spotswood_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Spotswood Green est un biologiste marin britannique né en 1847 à Youghal et mort en 1919.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ordonné prêtre en 1873, il abandonne sa charge en 1890 pour devenir inspecteur des pêches, fonction qu’il conserve jusqu’à son départ à la retraite en 1914. Il participe à plusieurs missions de dragage des fonds marins.
-William Green est aussi connu pour avoir été membre de l'Alpine Club. Il est connu pour avoir gravi des montagnes, notamment au Canada et en Nouvelle-Zélande[1]. En 1882, il tente avec deux guides suisses la première ascension du mont Cook en Nouvelle-Zélande, mais l'équipe est obligé par le mauvais temps de faire demi-tour peu avant le sommet[2]. À la fin des années 1880, William Green étudie la chaîne Selkirk en Colombie-Britannique.
+William Green est aussi connu pour avoir été membre de l'Alpine Club. Il est connu pour avoir gravi des montagnes, notamment au Canada et en Nouvelle-Zélande. En 1882, il tente avec deux guides suisses la première ascension du mont Cook en Nouvelle-Zélande, mais l'équipe est obligé par le mauvais temps de faire demi-tour peu avant le sommet. À la fin des années 1880, William Green étudie la chaîne Selkirk en Colombie-Britannique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The High Alps of New Zealand. Or a Trip to the Glaciers of the Antipodes With an Ascent of Mount Cook. Macmillian &amp; Co., Londres,  1883.
 Among the Selkirk glaciers: being the account of a rough survey in the Rocky Mountain regions of British Columbia, Macmillian &amp; Co., Londres, 1890.
